--- a/data/income_statement/3digits/total/682_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/682_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>682-Renting and operating of own or leased real estate</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>682-Renting and operating of own or leased real estate</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>2104941.52661</v>
@@ -965,28 +871,33 @@
         <v>3849015.68344</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5378591.68218</v>
+        <v>5669025.62809</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4898117.145629999</v>
+        <v>5121239.62129</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>5664866.28591</v>
+        <v>5665282.952610001</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>4918382.538319999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>12217612.84958</v>
+        <v>12218840.34179</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>15097388.96461</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>15146690.38673</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>17289435.716</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1985321.15956</v>
@@ -1004,10 +915,10 @@
         <v>3610506.30246</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4979296.2275</v>
+        <v>5227799.9414</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4727665.160680001</v>
+        <v>4910929.05247</v>
       </c>
       <c r="J6" s="48" t="n">
         <v>5399647.56366</v>
@@ -1016,22 +927,27 @@
         <v>4700935.93784</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>11598942.63835</v>
+        <v>11600158.90207</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>14360951.99029</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14410027.03607</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>16613622.037</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>16346.29629</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>7839.32207</v>
+        <v>7839.322069999999</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>26025.64297</v>
@@ -1043,7 +959,7 @@
         <v>16148.90365</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>86746.0116</v>
+        <v>92978.59790000001</v>
       </c>
       <c r="I7" s="48" t="n">
         <v>12371.63601</v>
@@ -1060,11 +976,16 @@
       <c r="M7" s="48" t="n">
         <v>134829.89251</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>56070.238</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>103274.07076</v>
@@ -1082,28 +1003,33 @@
         <v>222360.47733</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>312549.44308</v>
+        <v>348247.08879</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>158080.34894</v>
+        <v>197938.93281</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>248054.72253</v>
+        <v>248471.38923</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>198746.31302</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>561066.6477800001</v>
+        <v>561077.87627</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>601607.0818099999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>601833.45815</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>619743.441</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>25970.20352</v>
@@ -1121,10 +1047,10 @@
         <v>37720.87905</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>96570.4292</v>
+        <v>98089.68776</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>148336.9909</v>
+        <v>149749.26983</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>214616.57867</v>
@@ -1133,16 +1059,21 @@
         <v>191354.55611</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>642236.3799399999</v>
+        <v>642365.37994</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>701383.7814499999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>701768.13382</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1976244.174</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>16937.88071</v>
@@ -1160,10 +1091,10 @@
         <v>24919.30515</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>67157.62675</v>
+        <v>68268.04908</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>95720.62188999999</v>
+        <v>96741.16475</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>155683.00923</v>
@@ -1172,22 +1103,27 @@
         <v>137548.9881</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>382423.62551</v>
+        <v>382552.62551</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>303439.42821</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>303823.78058</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>657099.74</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>7794.61954</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>5004.162689999999</v>
+        <v>5004.16269</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>3945.46406</v>
@@ -1199,16 +1135,16 @@
         <v>11107.28952</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>27433.56362</v>
+        <v>27842.39985</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>51872.72932999999</v>
+        <v>52264.46539999999</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>58219.46332</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>52211.03062000001</v>
+        <v>52211.03062</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>252326.26999</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>377351.60216</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>1284863.616</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1237.70327</v>
@@ -1241,7 +1182,7 @@
         <v>1979.23883</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>743.6396799999999</v>
+        <v>743.63968</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>714.10612</v>
@@ -1250,16 +1191,21 @@
         <v>1594.53739</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>7486.48444</v>
+        <v>7486.484439999999</v>
       </c>
       <c r="M12" s="48" t="n">
         <v>20592.75108</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>34280.818</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>2078971.32309</v>
@@ -1271,40 +1217,45 @@
         <v>2666545.33656</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2962583.7165</v>
+        <v>2962583.716500001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3811294.80439</v>
+        <v>3811294.804389999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>5282021.252979999</v>
+        <v>5570935.94033</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4749780.15473</v>
+        <v>4971490.351460001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5450249.70724</v>
+        <v>5450666.37394</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>4727027.98221</v>
+        <v>4727027.982210001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>11575376.46964</v>
+        <v>11576474.96185</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>14396005.18316</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>14444922.25291</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>15313191.542</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1114872.92671</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>715197.27123</v>
+        <v>715197.2712300001</v>
       </c>
       <c r="E14" s="47" t="n">
         <v>1193528.38137</v>
@@ -1316,10 +1267,10 @@
         <v>1455477.27781</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2308166.71506</v>
+        <v>2438129.61725</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1789253.44538</v>
+        <v>1845486.27402</v>
       </c>
       <c r="J14" s="47" t="n">
         <v>1888193.04442</v>
@@ -1328,16 +1279,21 @@
         <v>2100311.58998</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5264558.530799999</v>
+        <v>5264558.912260001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>6663686.09707</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6700057.804560001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>7970200.657</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>231007.45229</v>
@@ -1352,13 +1308,13 @@
         <v>100577.00212</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>62003.30824999999</v>
+        <v>62003.30825</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>194848.74003</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>138141.92531</v>
+        <v>139447.59286</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>41708.06367</v>
@@ -1370,13 +1326,18 @@
         <v>275451.46426</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>99351.41166999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>99351.41167</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>151621.877</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>154040.54017</v>
@@ -1394,10 +1355,10 @@
         <v>232461.89717</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>607770.5750999999</v>
+        <v>680052.83056</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>336069.24135</v>
+        <v>342671.8108100001</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>229634.28044</v>
@@ -1409,34 +1370,39 @@
         <v>127939.34514</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>263345.91613</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>296650.77746</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>611719.585</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>729504.2691899999</v>
+        <v>729504.26919</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>596024.9906799999</v>
+        <v>596024.99068</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>910043.3970200001</v>
+        <v>910043.39702</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>950346.5279399999</v>
+        <v>950346.5279400001</v>
       </c>
       <c r="G17" s="48" t="n">
         <v>1151158.79126</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1380518.27498</v>
+        <v>1438198.92171</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1307843.88692</v>
+        <v>1350412.06715</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>1611621.89682</v>
@@ -1445,16 +1411,21 @@
         <v>1931363.40428</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>4847330.501970001</v>
+        <v>4847330.88343</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>6276024.6255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>6279091.47166</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>7187160.486</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>320.66506</v>
@@ -1463,7 +1434,7 @@
         <v>345.47874</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>4331.606390000001</v>
+        <v>4331.60639</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>2317.76472</v>
@@ -1475,7 +1446,7 @@
         <v>125029.12495</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>7198.3918</v>
+        <v>12954.8032</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>5228.80349</v>
@@ -1489,17 +1460,22 @@
       <c r="M18" s="48" t="n">
         <v>24964.14377</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>19698.709</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>964098.39638</v>
+        <v>964098.3963799999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>982315.7279000001</v>
+        <v>982315.7278999999</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>1473016.95519</v>
@@ -1511,67 +1487,77 @@
         <v>2355817.52658</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2973854.53792</v>
+        <v>3132806.32308</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2960526.709349999</v>
+        <v>3126004.07744</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3562056.66282</v>
+        <v>3562473.32952</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2626716.39223</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>6310817.93884</v>
+        <v>6311916.04959</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>7732319.08609</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>7744864.44835</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>7342990.885</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>436438.13385</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>431877.2043400001</v>
+        <v>431877.20434</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>624478.55938</v>
+        <v>624480.1254799999</v>
       </c>
       <c r="F20" s="47" t="n">
         <v>728335.5715</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>932419.03843</v>
+        <v>932428.58313</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1060860.50581</v>
+        <v>1130234.08558</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>910505.9579200001</v>
+        <v>978801.6484900001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1098827.95961</v>
+        <v>1099037.6553</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>692020.11252</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1908091.92413</v>
+        <v>1908855.68505</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1738895.85351</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1768908.4665</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2059375.053</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>3.30759</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>50672.3339</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>8901.442999999999</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>46634.27223</v>
@@ -1628,10 +1619,10 @@
         <v>76487.32312999999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>112499.31825</v>
+        <v>121296.97247</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>108630.48479</v>
+        <v>113075.81168</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>123464.82783</v>
@@ -1640,16 +1631,21 @@
         <v>87748.70281</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>113749.9095</v>
+        <v>113938.59035</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>92701.84685</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>115985.94603</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>107486.961</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>389800.55403</v>
@@ -1658,85 +1654,95 @@
         <v>396364.49904</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>576556.23387</v>
+        <v>576557.7999700001</v>
       </c>
       <c r="F23" s="48" t="n">
         <v>643239.24101</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>855931.5071</v>
+        <v>855941.0517999999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>948295.64382</v>
+        <v>1008871.56937</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>801875.4731299999</v>
+        <v>865725.8368099999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>975363.1317800001</v>
+        <v>975572.82747</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>604226.70585</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1774980.07966</v>
+        <v>1775555.15973</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1595521.67276</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1602250.18657</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1942986.649</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>527660.2625300001</v>
+        <v>527660.2625299999</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>550438.5235600001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>848538.3958100001</v>
+        <v>848536.8297100001</v>
       </c>
       <c r="F24" s="47" t="n">
         <v>1033209.99085</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1423398.48815</v>
+        <v>1423388.94345</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1912994.03211</v>
+        <v>2002572.2375</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>2050020.75143</v>
+        <v>2147202.42895</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2463228.70321</v>
+        <v>2463435.67422</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1934696.27971</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>4402726.01471</v>
+        <v>4403060.364540001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>5993423.232580001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>5975955.98185</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>5283615.832</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1045719.45933</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>950727.1151400001</v>
+        <v>950727.1151399999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1032780.0713</v>
+        <v>1032773.64533</v>
       </c>
       <c r="F25" s="47" t="n">
         <v>1021783.56764</v>
@@ -1745,28 +1751,33 @@
         <v>1942860.33352</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>2165949.25791</v>
+        <v>2286022.98634</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2484622.576780001</v>
+        <v>2619916.51036</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2376978.20083</v>
+        <v>2376978.20089</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>2394873.17364</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>12060835.98827</v>
+        <v>12060838.51332</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>11491888.0673</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>11491900.09486</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>14629163.182</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>1912.01151</v>
@@ -1784,7 +1795,7 @@
         <v>36682.90472</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>29365.56322</v>
+        <v>29916.15322</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>24062.99844</v>
@@ -1796,16 +1807,21 @@
         <v>56841.18332</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>65855.37581999999</v>
+        <v>65855.37582</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>76188.51248999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>249751.613</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>3665.91623</v>
@@ -1820,13 +1836,13 @@
         <v>72099.26856</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>59775.90152</v>
+        <v>59775.90152000001</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>61530.78645</v>
+        <v>61676.83806</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>42366.06321</v>
+        <v>42366.06320999999</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>56043.19356</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>741260.83589</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>130519.536</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>168115.97227</v>
@@ -1853,7 +1874,7 @@
         <v>61775.38926</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>80479.64033000001</v>
+        <v>80479.64032999999</v>
       </c>
       <c r="F28" s="48" t="n">
         <v>97370.52939</v>
@@ -1862,10 +1883,10 @@
         <v>96551.28544999998</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>130715.35578</v>
+        <v>160345.59936</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>105534.72844</v>
+        <v>140035.1538</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>184896.89676</v>
@@ -1874,16 +1895,21 @@
         <v>113109.98238</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>812189.76287</v>
+        <v>812193.9053399999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1771994.96033</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1771998.96507</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>2841777.647</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>533.60155</v>
@@ -1901,7 +1927,7 @@
         <v>2980.64566</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>5354.990790000001</v>
+        <v>5594.24609</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>921.0443</v>
@@ -1918,17 +1944,22 @@
       <c r="M29" s="48" t="n">
         <v>16943.29222</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>4829.66</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>12592.6406</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>7539.670059999999</v>
+        <v>7539.67006</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>8784.02882</v>
@@ -1940,10 +1971,10 @@
         <v>14221.21835</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>17529.10564</v>
+        <v>17605.37764</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>14026.70284</v>
+        <v>14530.02675</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>24408.2549</v>
@@ -1952,16 +1983,21 @@
         <v>10163.19466</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>73737.87667999999</v>
+        <v>73737.87668</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>90726.92196000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>82691.349</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1093.31438</v>
@@ -1996,17 +2032,22 @@
       <c r="M31" s="48" t="n">
         <v>238717.91862</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>562371.942</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>729597.1464</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>790855.5538800001</v>
+        <v>790855.5538799999</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>792439.52866</v>
@@ -2018,13 +2059,13 @@
         <v>1218950.06253</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1561705.66999</v>
+        <v>1670336.38181</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1918706.90683</v>
+        <v>2016005.01376</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1809471.31163</v>
+        <v>1809471.31169</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>1854422.09657</v>
@@ -2033,13 +2074,18 @@
         <v>10451999.55772</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>8173751.38474</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>8173752.86557</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>10036249.253</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>641.0776500000001</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>320.49669</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>385.237</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>2244.02005</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>50.84746</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>113.883</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>125323.75869</v>
@@ -2126,7 +2182,7 @@
         <v>51589.45017</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>80583.17689</v>
+        <v>80576.75092000001</v>
       </c>
       <c r="F35" s="48" t="n">
         <v>121731.66138</v>
@@ -2135,10 +2191,10 @@
         <v>98972.30503</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>157809.24984</v>
+        <v>138609.85396</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>165855.06317</v>
+        <v>168847.14055</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>145493.93466</v>
@@ -2147,16 +2203,21 @@
         <v>148868.761</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>329398.99484</v>
+        <v>329397.37742</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>381932.8969000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>381939.43889</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>720473.062</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>1110204.33452</v>
@@ -2174,10 +2235,10 @@
         <v>1851569.59328</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1433123.83754</v>
+        <v>1610410.92301</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>2412437.28379</v>
+        <v>2692910.19833</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>3236995.30469</v>
@@ -2189,19 +2250,24 @@
         <v>16229221.64344</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>11818155.25624</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>11818166.17438</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>31413169.563</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>642.22829</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>990.94084</v>
+        <v>990.9408400000001</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>327.15991</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>1547.84444</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>1857.477</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>26096.00848</v>
@@ -2252,10 +2323,10 @@
         <v>43438.48791</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>50727.13902999999</v>
+        <v>51198.40229</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>30796.56945</v>
+        <v>31484.03384</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>93391.90578</v>
@@ -2264,16 +2335,21 @@
         <v>24823.45351</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>83741.33772999998</v>
+        <v>83741.33773</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>132428.45823</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>119107.298</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>1.60146</v>
@@ -2291,7 +2367,7 @@
         <v>3256.62845</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>50997.81907</v>
+        <v>50997.81906999999</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>12047.73556</v>
@@ -2308,20 +2384,25 @@
       <c r="M39" s="48" t="n">
         <v>4.96187</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>14083.735</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>1055571.31628</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>660186.7556499999</v>
+        <v>660186.7556500001</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>922946.91111</v>
+        <v>922946.9111100001</v>
       </c>
       <c r="F40" s="48" t="n">
         <v>632901.1489500001</v>
@@ -2330,28 +2411,33 @@
         <v>1761275.91696</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1262242.2079</v>
+        <v>1438161.66569</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>2275516.83613</v>
+        <v>2552978.51984</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>2996887.03465</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>2757086.10331</v>
+        <v>2757086.103310001</v>
       </c>
       <c r="L40" s="48" t="n">
         <v>15888289.58666</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>11258321.82071</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>11258332.73885</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>23577893.598</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>737.40212</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>838.5047900000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1380.03</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>27.512</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0.76386</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>27128.26589</v>
@@ -2447,10 +2543,10 @@
         <v>42316.01293</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>65965.74502</v>
+        <v>66862.10944</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>94050.24608999999</v>
+        <v>96374.01253000001</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>135989.48862</v>
@@ -2464,11 +2560,16 @@
       <c r="M43" s="48" t="n">
         <v>425012.90234</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>7698847.425</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>398337.8179</v>
@@ -2477,7 +2578,7 @@
         <v>339648.96924</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>621584.4568899999</v>
+        <v>621584.45689</v>
       </c>
       <c r="F44" s="47" t="n">
         <v>586422.71529</v>
@@ -2486,10 +2587,10 @@
         <v>1126861.49635</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1101456.42664</v>
+        <v>1118304.5079</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1312358.3573</v>
+        <v>1328412.86809</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>1562982.22821</v>
@@ -2498,16 +2599,21 @@
         <v>1419355.51533</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>6197996.532450001</v>
+        <v>6197997.84917</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>6106961.638060001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>6106986.142809999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>10522204.855</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>188424.91315</v>
@@ -2525,10 +2631,10 @@
         <v>531048.94882</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>536861.7842199999</v>
+        <v>546539.52295</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>589936.6728800001</v>
+        <v>605991.1836699999</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>766811.68022</v>
@@ -2537,16 +2643,21 @@
         <v>702128.86424</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>3721203.47288</v>
+        <v>3721204.7896</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>4160615.97327</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>4160640.47802</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>6476565.789</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>209912.90475</v>
@@ -2564,10 +2675,10 @@
         <v>595812.54753</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>564594.64242</v>
+        <v>571764.9849500001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>722421.6844199999</v>
+        <v>722421.6844200001</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>796170.54799</v>
@@ -2581,50 +2692,60 @@
       <c r="M46" s="48" t="n">
         <v>1946345.66479</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>4045639.066</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>64837.56944000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>449719.9587200001</v>
+        <v>449719.95872</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>166011.28773</v>
+        <v>166003.29566</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>767546.79216</v>
+        <v>767546.7921599998</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>387827.73204</v>
+        <v>387818.1873400001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1544363.02584</v>
+        <v>1559879.79293</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>809847.68712</v>
+        <v>745795.87289</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>40229.37114000002</v>
+        <v>40436.34220999998</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>68203.02423</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-5963656.172910001</v>
+        <v>-5963320.61475</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-439805.59442</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-457296.24048</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-22022595.404</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>40818.41333</v>
@@ -2633,7 +2754,7 @@
         <v>35124.17326</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>49121.22035999999</v>
+        <v>49121.22036</v>
       </c>
       <c r="F48" s="47" t="n">
         <v>208357.39749</v>
@@ -2642,28 +2763,33 @@
         <v>277864.04443</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>147453.52672</v>
+        <v>150975.97361</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>194831.57372</v>
+        <v>195913.49454</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>223214.68088</v>
+        <v>223315.08247</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>86733.46405</v>
+        <v>86733.46405000001</v>
       </c>
       <c r="L48" s="47" t="n">
         <v>891784.09022</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>274877.79372</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>274878.45007</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1241649.139</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>958.4841700000001</v>
@@ -2681,7 +2807,7 @@
         <v>1277.22356</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>19399.95724</v>
+        <v>19890.66944</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>1509.57359</v>
@@ -2698,17 +2824,22 @@
       <c r="M49" s="48" t="n">
         <v>1444.52723</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>9824.987999999999</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>39859.92916000001</v>
+        <v>39859.92916</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>33779.91038</v>
+        <v>33779.91037999999</v>
       </c>
       <c r="E50" s="48" t="n">
         <v>27361.11029</v>
@@ -2720,34 +2851,39 @@
         <v>276586.82087</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>128053.56948</v>
+        <v>131085.30417</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>193322.00013</v>
+        <v>194403.92095</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>222493.80888</v>
+        <v>222594.21047</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>83467.42947999999</v>
+        <v>83467.42948000001</v>
       </c>
       <c r="L50" s="48" t="n">
         <v>888475.14705</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>273433.26649</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>273433.92284</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1231824.151</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>59567.79970999999</v>
+        <v>59567.79971</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>37916.05826999999</v>
+        <v>37916.05827</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>163263.3298</v>
@@ -2759,28 +2895,33 @@
         <v>130617.35298</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>281396.58503</v>
+        <v>282180.5180399999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>116875.3109</v>
+        <v>117500.5634</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>190820.4975</v>
+        <v>190829.90876</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>142481.34327</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>641770.2677</v>
+        <v>641771.63729</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>481251.0835399999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>481278.9680999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>475395.688</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>8564.12708</v>
@@ -2795,16 +2936,16 @@
         <v>8.602499999999999</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>8342.577370000001</v>
+        <v>8342.577369999999</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>702.0086000000001</v>
+        <v>702.0086</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>1767.0907</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>897.1010200000001</v>
+        <v>897.1010199999999</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>213.82123</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>3475.30618</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>5897.509</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1792.85993</v>
@@ -2828,7 +2974,7 @@
         <v>2220.51722</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>7969.89559</v>
+        <v>7969.895589999999</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>5442.388099999999</v>
@@ -2837,13 +2983,13 @@
         <v>2892.25939</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>8899.9175</v>
+        <v>9399.174429999999</v>
       </c>
       <c r="I53" s="48" t="n">
         <v>2428.11966</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>3752.10586</v>
+        <v>3761.35184</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>4230.07619</v>
@@ -2854,14 +3000,19 @@
       <c r="M53" s="48" t="n">
         <v>3720.50809</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>26940.941</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>49210.8127</v>
+        <v>49210.81269999999</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>35677.7438</v>
@@ -2876,28 +3027,33 @@
         <v>119382.51622</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>271794.65893</v>
+        <v>272079.33501</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>112680.10054</v>
+        <v>113305.35304</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>186171.29062</v>
+        <v>186171.4559</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>138037.44585</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>417792.78518</v>
+        <v>417794.15477</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>474055.26927</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>474083.15383</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>442557.238</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>46088.18306</v>
@@ -2906,46 +3062,51 @@
         <v>446928.07371</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>51869.17829</v>
+        <v>51861.18622</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>853720.5603600001</v>
+        <v>853720.56036</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>535074.42349</v>
+        <v>535064.87879</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1410419.96753</v>
+        <v>1428675.2485</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>887803.9499400001</v>
+        <v>824208.8040300001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>72623.55452000001</v>
+        <v>72921.51592000002</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>12455.14501</v>
+        <v>12455.14500999998</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-5713642.35039</v>
+        <v>-5713308.16182</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-646178.8842400002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-663696.75851</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-21256341.953</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>95346.16040000001</v>
+        <v>95346.16039999999</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>77705.54673999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>99139.54379000001</v>
+        <v>99139.54379</v>
       </c>
       <c r="F56" s="47" t="n">
         <v>159653.06803</v>
@@ -2954,64 +3115,72 @@
         <v>164092.72274</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>230950.77986</v>
+        <v>230978.89435</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>242011.20334</v>
+        <v>269824.37598</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>276272.36192</v>
+        <v>276334.11645</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>199543.64678</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>308928.79873</v>
+        <v>309001.65072</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>401519.9518100001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>401592.59204</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>285468.235</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-49257.97734</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>369222.52697</v>
+        <v>369222.5269699999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-47270.36549999999</v>
+        <v>-47278.35756999999</v>
       </c>
       <c r="F57" s="47" t="n">
         <v>694067.49233</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>370981.70075</v>
+        <v>370972.15605</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1179469.18767</v>
+        <v>1197696.35415</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>645792.7466000001</v>
+        <v>554384.42805</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-203648.8074</v>
+        <v>-203412.60053</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-187088.50177</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-6022571.14912</v>
+        <v>-6022309.81254</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-1047698.83605</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-1065289.35055</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-21541810.188</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>282</v>
@@ -3038,34 +3210,37 @@
         <v>324</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F59" s="35" t="n">
         <v>422</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1529</v>
+        <v>1541</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>394</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>672</v>
+        <v>698</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>858</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>